--- a/demo/association_XY.xlsx
+++ b/demo/association_XY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,117 +436,137 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>y_0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>y_1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>y_2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>y_3</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>x_0</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>1.942623557821681</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.01516245114331829</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>1.661858422748866</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.922138258697266</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>x_1</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>2.303666932543253</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>2.428776205485723</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.01365124617920782</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.834538794790368</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>x_2</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.1281969927680464</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2.060410073781072</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>1.914186884929011</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>2.695174615988214</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>x_3</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>1.23497589218831</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>2.017293737749168</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>2.681882057827218</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.4966433470364802</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>x_4</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>2.455164488095083</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>2.366595711720329</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>1.647056736494588</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.3453801511534288</v>
       </c>
     </row>
